--- a/data/stat2018-07-06.xlsx
+++ b/data/stat2018-07-06.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>validtime</t>
   </si>
@@ -21,6 +21,12 @@
     <t>avg</t>
   </si>
   <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
     <t>med</t>
   </si>
   <si>
@@ -439,6 +445,9 @@
   </si>
   <si>
     <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
   </si>
 </sst>
 </file>
@@ -506,10 +515,16 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n" s="2">
         <v>43287.125</v>
@@ -518,12 +533,18 @@
         <v>5.175575215297633</v>
       </c>
       <c r="D2" t="n">
+        <v>2.893348755491655</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.950414462531422</v>
+      </c>
+      <c r="F2" t="n">
         <v>4.946324405850552</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n" s="2">
         <v>43287.25</v>
@@ -532,12 +553,18 @@
         <v>4.55939081896058</v>
       </c>
       <c r="D3" t="n">
+        <v>1.5526326912290038</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.532584666092517</v>
+      </c>
+      <c r="F3" t="n">
         <v>4.647111606744657</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="2">
         <v>43287.375</v>
@@ -546,12 +573,18 @@
         <v>2.9190008059670944</v>
       </c>
       <c r="D4" t="n">
+        <v>0.3220962130134893</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.914042788050344</v>
+      </c>
+      <c r="F4" t="n">
         <v>2.728475857262685</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="2">
         <v>43287.5</v>
@@ -560,12 +593,18 @@
         <v>2.678431430158561</v>
       </c>
       <c r="D5" t="n">
+        <v>0.3157922039660395</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.837639590138219</v>
+      </c>
+      <c r="F5" t="n">
         <v>2.6761334518379654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="2">
         <v>43287.625</v>
@@ -574,12 +613,18 @@
         <v>2.423078883173036</v>
       </c>
       <c r="D6" t="n">
+        <v>0.015809346141375913</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.08579037183185</v>
+      </c>
+      <c r="F6" t="n">
         <v>2.6994140596216964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="2">
         <v>43287.75</v>
@@ -588,12 +633,18 @@
         <v>2.3533062493809727</v>
       </c>
       <c r="D7" t="n">
+        <v>0.6031202496940082</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.9784358318168174</v>
+      </c>
+      <c r="F7" t="n">
         <v>2.107552030589933</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="2">
         <v>43287.875</v>
@@ -602,12 +653,18 @@
         <v>3.262944029950743</v>
       </c>
       <c r="D8" t="n">
+        <v>1.4093506491054169</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.015709115553089</v>
+      </c>
+      <c r="F8" t="n">
         <v>3.08590103834128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="2">
         <v>43288.0</v>
@@ -616,12 +673,18 @@
         <v>4.0255855310562865</v>
       </c>
       <c r="D9" t="n">
+        <v>1.6040401450688064</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.25803676332927</v>
+      </c>
+      <c r="F9" t="n">
         <v>4.050799026107496</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="2">
         <v>43288.125</v>
@@ -630,12 +693,18 @@
         <v>4.744070175660551</v>
       </c>
       <c r="D10" t="n">
+        <v>1.878112661119434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.088871438385887</v>
+      </c>
+      <c r="F10" t="n">
         <v>4.923492072243856</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="2">
         <v>43288.25</v>
@@ -644,12 +713,18 @@
         <v>3.9618098436023157</v>
       </c>
       <c r="D11" t="n">
+        <v>1.6253231660387053</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.233392446228257</v>
+      </c>
+      <c r="F11" t="n">
         <v>3.9072704486235974</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="2">
         <v>43288.375</v>
@@ -658,12 +733,18 @@
         <v>2.7932975591284697</v>
       </c>
       <c r="D12" t="n">
+        <v>0.07189497226521192</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.416754520465347</v>
+      </c>
+      <c r="F12" t="n">
         <v>2.9571560176510814</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="2">
         <v>43288.5</v>
@@ -672,12 +753,18 @@
         <v>2.332383785425097</v>
       </c>
       <c r="D13" t="n">
+        <v>-0.5680378492850535</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.461258074773085</v>
+      </c>
+      <c r="F13" t="n">
         <v>2.3350866649593063</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="2">
         <v>43288.625</v>
@@ -686,12 +773,18 @@
         <v>2.137644240117211</v>
       </c>
       <c r="D14" t="n">
+        <v>-0.7449552915274289</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.629627519708434</v>
+      </c>
+      <c r="F14" t="n">
         <v>2.340295457755212</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="2">
         <v>43288.75</v>
@@ -700,12 +793,18 @@
         <v>2.8190788393142454</v>
       </c>
       <c r="D15" t="n">
+        <v>-0.17984269370272649</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.777468674938326</v>
+      </c>
+      <c r="F15" t="n">
         <v>2.4696740142583034</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="2">
         <v>43288.875</v>
@@ -714,12 +813,18 @@
         <v>3.9193592088134475</v>
       </c>
       <c r="D16" t="n">
+        <v>1.103731795212161</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.389067359738923</v>
+      </c>
+      <c r="F16" t="n">
         <v>3.9602240128387107</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="2">
         <v>43289.0</v>
@@ -728,12 +833,18 @@
         <v>4.782177434929778</v>
       </c>
       <c r="D17" t="n">
+        <v>2.633633690540172</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.050351859269865</v>
+      </c>
+      <c r="F17" t="n">
         <v>4.556375754329067</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="2">
         <v>43289.125</v>
@@ -742,12 +853,18 @@
         <v>5.7009675307516225</v>
       </c>
       <c r="D18" t="n">
+        <v>2.5214493066625097</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.02382139928268</v>
+      </c>
+      <c r="F18" t="n">
         <v>5.781359704161543</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="2">
         <v>43289.25</v>
@@ -756,12 +873,18 @@
         <v>6.154878147942169</v>
       </c>
       <c r="D19" t="n">
+        <v>2.4284176010498344</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8.92436184076763</v>
+      </c>
+      <c r="F19" t="n">
         <v>6.0190151433860555</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="2">
         <v>43289.375</v>
@@ -770,12 +893,18 @@
         <v>5.641319467259372</v>
       </c>
       <c r="D20" t="n">
+        <v>2.1051863370502644</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9.273759666606653</v>
+      </c>
+      <c r="F20" t="n">
         <v>6.037174239699902</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="2">
         <v>43289.5</v>
@@ -784,12 +913,18 @@
         <v>5.132487389923004</v>
       </c>
       <c r="D21" t="n">
+        <v>1.3129258253492397</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.706338475751641</v>
+      </c>
+      <c r="F21" t="n">
         <v>5.648272188834896</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="2">
         <v>43289.625</v>
@@ -798,12 +933,18 @@
         <v>4.37166984432872</v>
       </c>
       <c r="D22" t="n">
+        <v>1.6630624883840097</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.739926662409217</v>
+      </c>
+      <c r="F22" t="n">
         <v>4.150513627325993</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="2">
         <v>43289.75</v>
@@ -812,12 +953,18 @@
         <v>4.131453865743353</v>
       </c>
       <c r="D23" t="n">
+        <v>1.8812024583228886</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.719132761290263</v>
+      </c>
+      <c r="F23" t="n">
         <v>3.684663447300786</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="2">
         <v>43289.875</v>
@@ -826,12 +973,18 @@
         <v>5.012880424563073</v>
       </c>
       <c r="D24" t="n">
+        <v>2.7325025881478955</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.321522122895093</v>
+      </c>
+      <c r="F24" t="n">
         <v>4.973129756973414</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="2">
         <v>43290.0</v>
@@ -840,12 +993,18 @@
         <v>6.218560425066354</v>
       </c>
       <c r="D25" t="n">
+        <v>4.432766806912863</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.980643196132128</v>
+      </c>
+      <c r="F25" t="n">
         <v>6.036837303543766</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="2">
         <v>43290.125</v>
@@ -854,12 +1013,18 @@
         <v>6.7912252257168575</v>
       </c>
       <c r="D26" t="n">
+        <v>4.414822517413047</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8.32093546467493</v>
+      </c>
+      <c r="F26" t="n">
         <v>6.598566959747894</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="2">
         <v>43290.25</v>
@@ -868,12 +1033,18 @@
         <v>6.398067624357948</v>
       </c>
       <c r="D27" t="n">
+        <v>3.8723145803592547</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7.7558082169705225</v>
+      </c>
+      <c r="F27" t="n">
         <v>6.418673259571152</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="2">
         <v>43290.375</v>
@@ -882,12 +1053,18 @@
         <v>4.547616438318973</v>
       </c>
       <c r="D28" t="n">
+        <v>2.684361403570955</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.520540849161048</v>
+      </c>
+      <c r="F28" t="n">
         <v>4.658817562052248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="2">
         <v>43290.5</v>
@@ -896,12 +1073,18 @@
         <v>2.543670263610958</v>
       </c>
       <c r="D29" t="n">
+        <v>1.3530245807682326</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.6662588977380275</v>
+      </c>
+      <c r="F29" t="n">
         <v>2.533936730314305</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="2">
         <v>43290.625</v>
@@ -910,12 +1093,18 @@
         <v>1.450711384080654</v>
       </c>
       <c r="D30" t="n">
+        <v>0.5926624605478518</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.692842397959197</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.3149460910376805</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="2">
         <v>43290.75</v>
@@ -924,12 +1113,18 @@
         <v>0.9890218000422909</v>
       </c>
       <c r="D31" t="n">
+        <v>0.2156299933394794</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.28467169346707</v>
+      </c>
+      <c r="F31" t="n">
         <v>0.9631793615959441</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="2">
         <v>43290.875</v>
@@ -938,12 +1133,18 @@
         <v>1.3768112613671337</v>
       </c>
       <c r="D32" t="n">
+        <v>0.0189414038196926</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.3576451222193096</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.2366832750976529</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="2">
         <v>43291.0</v>
@@ -952,12 +1153,18 @@
         <v>2.160306696648809</v>
       </c>
       <c r="D33" t="n">
+        <v>0.13087162906434457</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.701967592905647</v>
+      </c>
+      <c r="F33" t="n">
         <v>1.9524358732737568</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="2">
         <v>43291.125</v>
@@ -966,12 +1173,18 @@
         <v>2.5694793926009836</v>
       </c>
       <c r="D34" t="n">
+        <v>0.003775001570805167</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.8249452078900825</v>
+      </c>
+      <c r="F34" t="n">
         <v>2.534881908898151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="2">
         <v>43291.25</v>
@@ -980,12 +1193,18 @@
         <v>2.439252231053792</v>
       </c>
       <c r="D35" t="n">
+        <v>-0.2589567613490785</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5.599408141017199</v>
+      </c>
+      <c r="F35" t="n">
         <v>2.943533655126177</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="2">
         <v>43291.375</v>
@@ -994,12 +1213,18 @@
         <v>1.5421191864646469</v>
       </c>
       <c r="D36" t="n">
+        <v>-1.5034122983523432</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.575563064188957</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.8822330417203654</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="2">
         <v>43291.5</v>
@@ -1008,12 +1233,18 @@
         <v>0.6875995060339231</v>
       </c>
       <c r="D37" t="n">
+        <v>-3.2805887735318295</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.4266147609656916</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.1248757734913972</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="2">
         <v>43291.625</v>
@@ -1022,12 +1253,18 @@
         <v>0.12429518472445313</v>
       </c>
       <c r="D38" t="n">
+        <v>-4.613292171186513</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.7618868709181985</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.6879626187665032</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="2">
         <v>43291.75</v>
@@ -1036,12 +1273,18 @@
         <v>-0.042475600058296786</v>
       </c>
       <c r="D39" t="n">
+        <v>-5.044085572451034</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.5615089561281366</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.3736253777813877</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="2">
         <v>43291.875</v>
@@ -1050,12 +1293,18 @@
         <v>0.6335571948992608</v>
       </c>
       <c r="D40" t="n">
+        <v>-4.129220674601991</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.347094093305117</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.6116130549034421</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="2">
         <v>43292.0</v>
@@ -1064,12 +1313,18 @@
         <v>1.8911495469281723</v>
       </c>
       <c r="D41" t="n">
+        <v>-2.1937749693849353</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6.020818446385738</v>
+      </c>
+      <c r="F41" t="n">
         <v>1.6360579934883446</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="2">
         <v>43292.125</v>
@@ -1078,6 +1333,12 @@
         <v>3.317560583611175</v>
       </c>
       <c r="D42" t="n">
+        <v>-0.31457839010546584</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7.69451292244571</v>
+      </c>
+      <c r="F42" t="n">
         <v>3.5846691807657765</v>
       </c>
     </row>
@@ -1097,21 +1358,21 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" t="n" s="4">
         <v>43283.75</v>
@@ -1128,7 +1389,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" t="n" s="4">
         <v>43283.79166666667</v>
@@ -1145,7 +1406,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" t="n" s="4">
         <v>43283.83333333333</v>
@@ -1162,7 +1423,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5" t="n" s="4">
         <v>43283.875</v>
@@ -1179,7 +1440,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B6" t="n" s="4">
         <v>43283.91666666667</v>
@@ -1196,7 +1457,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" t="n" s="4">
         <v>43283.95833333333</v>
@@ -1213,7 +1474,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" t="n" s="4">
         <v>43284.0</v>
@@ -1230,7 +1491,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" t="n" s="4">
         <v>43284.04166666667</v>
@@ -1247,7 +1508,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="n" s="4">
         <v>43284.08333333333</v>
@@ -1264,7 +1525,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" t="n" s="4">
         <v>43284.125</v>
@@ -1281,7 +1542,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" t="n" s="4">
         <v>43284.16666666667</v>
@@ -1298,7 +1559,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13" t="n" s="4">
         <v>43284.20833333333</v>
@@ -1315,7 +1576,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B14" t="n" s="4">
         <v>43284.25</v>
@@ -1332,7 +1593,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B15" t="n" s="4">
         <v>43284.29166666667</v>
@@ -1349,7 +1610,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" t="n" s="4">
         <v>43284.33333333333</v>
@@ -1366,7 +1627,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B17" t="n" s="4">
         <v>43284.375</v>
@@ -1383,7 +1644,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B18" t="n" s="4">
         <v>43284.41666666667</v>
@@ -1400,7 +1661,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B19" t="n" s="4">
         <v>43284.45833333333</v>
@@ -1417,7 +1678,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" t="n" s="4">
         <v>43284.5</v>
@@ -1434,7 +1695,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B21" t="n" s="4">
         <v>43284.54166666667</v>
@@ -1451,7 +1712,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B22" t="n" s="4">
         <v>43284.58333333333</v>
@@ -1468,7 +1729,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="n" s="4">
         <v>43284.625</v>
@@ -1485,7 +1746,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B24" t="n" s="4">
         <v>43284.66666666667</v>
@@ -1502,7 +1763,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B25" t="n" s="4">
         <v>43284.70833333333</v>
@@ -1519,7 +1780,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B26" t="n" s="4">
         <v>43284.75</v>
@@ -1536,7 +1797,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" t="n" s="4">
         <v>43284.79166666667</v>
@@ -1553,7 +1814,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B28" t="n" s="4">
         <v>43284.83333333333</v>
@@ -1570,7 +1831,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B29" t="n" s="4">
         <v>43284.875</v>
@@ -1587,7 +1848,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B30" t="n" s="4">
         <v>43284.91666666667</v>
@@ -1604,7 +1865,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B31" t="n" s="4">
         <v>43284.95833333333</v>
@@ -1621,7 +1882,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" t="n" s="4">
         <v>43285.0</v>
@@ -1638,7 +1899,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B33" t="n" s="4">
         <v>43285.04166666667</v>
@@ -1655,7 +1916,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B34" t="n" s="4">
         <v>43285.08333333333</v>
@@ -1672,7 +1933,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B35" t="n" s="4">
         <v>43285.125</v>
@@ -1689,7 +1950,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B36" t="n" s="4">
         <v>43285.16666666667</v>
@@ -1706,7 +1967,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B37" t="n" s="4">
         <v>43285.20833333333</v>
@@ -1723,7 +1984,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" t="n" s="4">
         <v>43285.25</v>
@@ -1740,7 +2001,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B39" t="n" s="4">
         <v>43285.29166666667</v>
@@ -1757,7 +2018,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B40" t="n" s="4">
         <v>43285.33333333333</v>
@@ -1774,7 +2035,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" t="n" s="4">
         <v>43285.375</v>
@@ -1791,7 +2052,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B42" t="n" s="4">
         <v>43285.41666666667</v>
@@ -1808,7 +2069,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B43" t="n" s="4">
         <v>43285.45833333333</v>
@@ -1825,7 +2086,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" t="n" s="4">
         <v>43285.5</v>
@@ -1842,7 +2103,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" t="n" s="4">
         <v>43285.54166666667</v>
@@ -1859,7 +2120,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" t="n" s="4">
         <v>43285.58333333333</v>
@@ -1876,7 +2137,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" t="n" s="4">
         <v>43285.625</v>
@@ -1893,7 +2154,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" t="n" s="4">
         <v>43285.66666666667</v>
@@ -1910,7 +2171,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" t="n" s="4">
         <v>43285.70833333333</v>
@@ -1927,7 +2188,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" t="n" s="4">
         <v>43285.75</v>
@@ -1944,7 +2205,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" t="n" s="4">
         <v>43285.79166666667</v>
@@ -1961,7 +2222,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" t="n" s="4">
         <v>43285.83333333333</v>
@@ -1978,7 +2239,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" t="n" s="4">
         <v>43285.875</v>
@@ -1995,7 +2256,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" t="n" s="4">
         <v>43285.91666666667</v>
@@ -2012,7 +2273,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" t="n" s="4">
         <v>43285.95833333333</v>
@@ -2029,7 +2290,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B56" t="n" s="4">
         <v>43286.0</v>
@@ -2046,7 +2307,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" t="n" s="4">
         <v>43286.04166666667</v>
@@ -2063,7 +2324,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B58" t="n" s="4">
         <v>43286.08333333333</v>
@@ -2080,7 +2341,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" t="n" s="4">
         <v>43286.125</v>
@@ -2097,7 +2358,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B60" t="n" s="4">
         <v>43286.16666666667</v>
@@ -2114,7 +2375,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B61" t="n" s="4">
         <v>43286.20833333333</v>
@@ -2131,7 +2392,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B62" t="n" s="4">
         <v>43286.25</v>
@@ -2148,7 +2409,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" t="n" s="4">
         <v>43286.29166666667</v>
@@ -2165,7 +2426,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B64" t="n" s="4">
         <v>43286.33333333333</v>
@@ -2182,7 +2443,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B65" t="n" s="4">
         <v>43286.375</v>
@@ -2199,7 +2460,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B66" t="n" s="4">
         <v>43286.41666666667</v>
@@ -2216,7 +2477,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B67" t="n" s="4">
         <v>43286.45833333333</v>
@@ -2233,7 +2494,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B68" t="n" s="4">
         <v>43286.5</v>
@@ -2250,7 +2511,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B69" t="n" s="4">
         <v>43286.54166666667</v>
@@ -2267,7 +2528,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B70" t="n" s="4">
         <v>43286.58333333333</v>
@@ -2284,7 +2545,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B71" t="n" s="4">
         <v>43286.625</v>
@@ -2301,7 +2562,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B72" t="n" s="4">
         <v>43286.66666666667</v>
@@ -2318,7 +2579,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B73" t="n" s="4">
         <v>43286.70833333333</v>
@@ -2335,7 +2596,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B74" t="n" s="4">
         <v>43286.75</v>
@@ -2352,7 +2613,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" t="n" s="4">
         <v>43286.79166666667</v>
@@ -2369,7 +2630,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B76" t="n" s="4">
         <v>43286.83333333333</v>
@@ -2386,7 +2647,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B77" t="n" s="4">
         <v>43286.875</v>
@@ -2403,7 +2664,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B78" t="n" s="4">
         <v>43286.91666666667</v>
@@ -2420,7 +2681,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B79" t="n" s="4">
         <v>43286.95833333333</v>
@@ -2437,7 +2698,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B80" t="n" s="4">
         <v>43287.0</v>
@@ -2454,7 +2715,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B81" t="n" s="4">
         <v>43287.04166666667</v>
@@ -2471,7 +2732,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B82" t="n" s="4">
         <v>43287.08333333333</v>
@@ -2488,7 +2749,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B83" t="n" s="4">
         <v>43287.125</v>
@@ -2505,7 +2766,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B84" t="n" s="4">
         <v>43287.16666666667</v>
@@ -2522,7 +2783,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B85" t="n" s="4">
         <v>43287.20833333333</v>
@@ -2539,7 +2800,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B86" t="n" s="4">
         <v>43287.25</v>
@@ -2556,7 +2817,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B87" t="n" s="4">
         <v>43287.29166666667</v>
@@ -2573,7 +2834,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B88" t="n" s="4">
         <v>43287.33333333333</v>
@@ -2590,7 +2851,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B89" t="n" s="4">
         <v>43287.375</v>
@@ -2607,7 +2868,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B90" t="n" s="4">
         <v>43287.41666666667</v>
@@ -2624,7 +2885,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B91" t="n" s="4">
         <v>43287.45833333333</v>
@@ -2641,7 +2902,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B92" t="n" s="4">
         <v>43287.5</v>
@@ -2658,7 +2919,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B93" t="n" s="4">
         <v>43287.54166666667</v>
@@ -2675,7 +2936,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B94" t="n" s="4">
         <v>43287.58333333333</v>
@@ -2692,7 +2953,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B95" t="n" s="4">
         <v>43287.625</v>
@@ -2705,6 +2966,23 @@
       </c>
       <c r="E95" t="e">
         <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" t="n" s="4">
+        <v>43287.66666666667</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.2246235386449602</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2.05776</v>
+      </c>
+      <c r="E96" t="n">
+        <v>120.0</v>
       </c>
     </row>
   </sheetData>
